--- a/数据整理/stocks/港股/00005-汇丰控股.xlsx
+++ b/数据整理/stocks/港股/00005-汇丰控股.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2377,4 +2378,72 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>21</v>
+      </c>
+      <c r="D2" t="n">
+        <v>10.8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>27</v>
+      </c>
+      <c r="D3" t="n">
+        <v>16.4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/港股/00005-汇丰控股.xlsx
+++ b/数据整理/stocks/港股/00005-汇丰控股.xlsx
@@ -8,7 +8,8 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2386,7 +2387,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:H27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2397,17 +2398,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -2417,14 +2438,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>21</v>
-      </c>
-      <c r="D2" t="n">
-        <v>10.8</v>
+          <t>159920</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华夏恒生ETF(QDII)</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>116.40</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>91.97</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>7.09</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>8.2528</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="3">
@@ -2433,13 +2476,1031 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>513550</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华泰柏瑞中证港股通50ETF</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>25.85</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>99.09</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>8.44</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.1817</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>501025</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>鹏华港股通中证香港银行投资指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>8.12</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>95.20</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>14.95</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.2139</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>513660</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>华夏沪港通恒生ETF</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>12.68</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>97.18</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>8.00</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.0144</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>010365</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>鹏华港股通中证香港银行投资指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>4.40</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>95.20</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>14.95</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.6578</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>007354</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>创金合信港股通量化股票A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>7.10</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>89.59</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>6.09</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.4324</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>517300</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>国寿安保中证沪港深300ETF</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>25.13</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>98.80</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1.39</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.3493</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>513600</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>南方恒生ETF</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>4.43</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>96.94</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>7.74</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.3429</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>006809</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>泰康港股通中证香港银行投资指数A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>1.41</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>94.66</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>14.84</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.2092</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>513900</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>华安CES港股通精选100ETF</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>1.97</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>95.89</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>7.76</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1529</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>159712</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>国泰中证港股通50ETF</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>2.04</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>93.05</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>7.23</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1475</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>517000</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>银华中证沪港深500ETF</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>7.33</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>95.03</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>1.97</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.1444</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>517080</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>汇添富中证沪港深500ETF</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>6.78</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>92.43</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>1.97</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.1336</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>006810</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>泰康港股通中证香港银行投资指数C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>94.66</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>14.84</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.1232</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>517100</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>富国中证沪港深500ETF</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>4.88</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>99.07</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2.05</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.1000</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>517010</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>易方达中证沪港深500交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>2.34</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>91.88</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2.08</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0487</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>513990</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>招商上证港股通ETF</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>98.79</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>6.39</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0396</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>162416</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>华宝港股通恒生香港35指数(LOF)</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>94.64</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>10.41</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0208</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>501309</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>国泰恒生港股通指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>90.32</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>5.74</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0207</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>007357</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>创金合信港股通量化股票C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>89.59</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>6.09</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0177</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>160925</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>大成中华沪深港300指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>93.45</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>2.29</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0167</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>006106</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>景顺长城量化港股通股票</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>84.52</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>3.14</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0148</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>166402</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>浦银安盛中证锐联沪港深基本面100指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>90.70</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>6.63</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0119</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>517170</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>华夏中证沪港深500交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>97.51</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>2.01</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0094</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>005707</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>富国港股通量化精选股票</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>81.19</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>3.18</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0083</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>008973</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>大成中华沪深港300指数(LOF)C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>93.45</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>2.29</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>26</v>
+      </c>
+      <c r="D2" t="n">
+        <v>15.67</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>21</v>
+      </c>
+      <c r="D3" t="n">
+        <v>10.8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
           <t>2021-Q2</t>
         </is>
       </c>
-      <c r="C3" t="n">
+      <c r="C4" t="n">
         <v>27</v>
       </c>
-      <c r="D3" t="n">
+      <c r="D4" t="n">
         <v>16.4</v>
       </c>
     </row>

--- a/数据整理/stocks/港股/00005-汇丰控股.xlsx
+++ b/数据整理/stocks/港股/00005-汇丰控股.xlsx
@@ -9,7 +9,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -3431,7 +3432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:H32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3442,17 +3443,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -3462,14 +3483,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>26</v>
-      </c>
-      <c r="D2" t="n">
-        <v>15.67</v>
+          <t>159920</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华夏恒生ETF(QDII)</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>151.31</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>95.19</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>7.92</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>11.9838</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -3478,14 +3521,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>21</v>
-      </c>
-      <c r="D3" t="n">
-        <v>10.8</v>
+          <t>513550</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华泰柏瑞中证港股通50ETF</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>31.28</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>98.89</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>10.39</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>3.2500</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -3494,13 +3559,1199 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>513660</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华夏沪港通恒生ETF</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>19.61</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>97.34</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>8.49</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.6649</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>501025</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>鹏华港股通中证香港银行投资指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>9.81</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.47</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>15.53</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.5235</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>010365</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>鹏华港股通中证香港银行投资指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>6.07</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.47</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>15.53</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.9427</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>007139</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>富国民裕进取沪港深成长精选混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>12.79</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>92.21</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.71</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.6024</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>513600</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>南方恒生ETF</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>5.89</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>99.00</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>8.48</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.4995</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>517300</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>国寿安保中证沪港深300ETF</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>25.13</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>99.04</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.84</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.4624</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>006809</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>泰康港股通中证香港银行投资指数A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>1.99</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>94.73</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>15.53</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.3090</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>007354</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>创金合信港股通量化股票A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>3.84</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>91.20</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>5.92</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.2273</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>513900</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>华安CES港股通精选100ETF</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>2.15</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>96.24</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>10.10</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.2172</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>010204</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>中银港股通优势成长股票</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>83.00</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>5.51</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.1758</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>517000</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>银华中证沪港深500ETF</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>6.14</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>94.65</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.58</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.1584</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>517080</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>汇添富中证沪港深500ETF</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>5.68</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>91.59</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.57</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.1460</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>006810</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>泰康港股通中证香港银行投资指数C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>94.73</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>15.53</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.1398</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>517100</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>富国中证沪港深500ETF</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>4.13</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>99.22</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2.71</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.1119</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>159712</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>国泰中证港股通50ETF</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>95.21</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>9.45</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0803</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>513990</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>招商上证港股通ETF</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>96.48</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>7.67</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0453</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>005142</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>中融沪港深大消费主题灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>88.98</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>5.27</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0258</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>501309</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>国泰恒生港股通指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>92.35</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>6.79</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0244</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>162416</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>华宝港股通恒生香港35指数(LOF)</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>94.50</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>9.68</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0203</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>005143</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>中融沪港深大消费主题灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>88.98</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>5.27</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0174</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>160925</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>大成中华沪深港300指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>93.14</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0160</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>007357</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>创金合信港股通量化股票C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>91.20</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>5.92</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0154</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>005701</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>上投摩根香港精选港股通混合</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>84.37</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0135</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>166402</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>浦银安盛中证锐联沪港深基本面100指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>90.95</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>6.55</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0124</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>517010</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>易方达中证沪港深500交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>91.01</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>2.72</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0120</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>006106</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>景顺长城量化港股通股票</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>85.20</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>3.43</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0117</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>005707</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>富国港股通量化精选股票</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>80.43</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>4.76</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0114</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>517170</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>华夏中证沪港深500交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>94.49</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>2.61</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0086</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>008973</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>大成中华沪深港300指数(LOF)C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>93.14</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>31</v>
+      </c>
+      <c r="D2" t="n">
+        <v>22.73</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>26</v>
+      </c>
+      <c r="D3" t="n">
+        <v>15.67</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>21</v>
+      </c>
+      <c r="D4" t="n">
+        <v>10.8</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
           <t>2021-Q2</t>
         </is>
       </c>
-      <c r="C4" t="n">
+      <c r="C5" t="n">
         <v>27</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D5" t="n">
         <v>16.4</v>
       </c>
     </row>

--- a/数据整理/stocks/港股/00005-汇丰控股.xlsx
+++ b/数据整理/stocks/港股/00005-汇丰控股.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -4666,7 +4667,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4677,17 +4678,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -4697,14 +4718,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>31</v>
-      </c>
-      <c r="D2" t="n">
-        <v>22.73</v>
+          <t>159920</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华夏恒生ETF(QDII)</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>149.90</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.87</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>7.46</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>11.1825</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="3">
@@ -4713,14 +4756,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>26</v>
-      </c>
-      <c r="D3" t="n">
-        <v>15.67</v>
+          <t>513550</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华泰柏瑞中证港股通50ETF</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>36.88</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>98.47</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>9.12</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>3.3635</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="4">
@@ -4729,14 +4794,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>21</v>
-      </c>
-      <c r="D4" t="n">
-        <v>10.8</v>
+          <t>513660</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华夏沪港通恒生ETF</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>22.17</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>96.96</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>7.97</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.7669</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="5">
@@ -4745,13 +4832,1023 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>501025</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>鹏华港股通中证香港银行投资指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>9.11</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.65</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>13.92</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.2681</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>010365</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>鹏华港股通中证香港银行投资指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>5.87</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.65</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>13.92</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.8171</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>513600</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>南方恒生ETF</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>5.79</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>98.88</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>7.85</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.4545</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>517300</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>国寿安保中证沪港深300ETF</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>23.89</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>98.52</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1.74</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.4157</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>007354</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>创金合信港股通量化股票A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>3.83</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>90.56</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>6.19</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.2371</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>006809</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>泰康港股通中证香港银行投资指数A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>1.60</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>93.68</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>13.89</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.2222</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>513900</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>华安CES港股通精选100ETF</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>1.86</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>97.60</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>9.28</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1726</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>517000</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>银华中证沪港深500ETF</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>6.13</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>94.66</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.35</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1441</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>517080</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>汇添富中证沪港深500ETF</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>5.87</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>91.86</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.37</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.1391</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>006810</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>泰康港股通中证香港银行投资指数C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>93.68</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>13.89</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.1153</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>517100</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>富国中证沪港深500ETF</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>4.16</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>98.59</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.42</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.1007</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>159712</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>国泰中证港股通50ETF</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>97.04</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>9.08</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0781</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>513990</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>招商上证港股通ETF</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>95.33</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>7.27</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0458</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>501309</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>国泰恒生港股通指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>93.11</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>6.51</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0221</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>162416</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>华宝港股通恒生香港35指数(LOF)</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>94.16</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>9.44</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0217</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>005707</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>富国港股通量化精选股票</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>84.92</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>6.25</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0156</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>007357</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>创金合信港股通量化股票C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>90.56</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>6.19</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0155</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>006106</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>景顺长城量化港股通股票</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>85.25</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.42</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0123</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>517010</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>易方达中证沪港深500交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>95.48</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>2.45</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0108</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>160925</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>大成中华沪深港300指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>93.22</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>2.71</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0092</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>517170</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>华夏中证沪港深500交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>95.78</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>2.36</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0083</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>166402</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>浦银安盛中证锐联沪港深基本面100指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>91.68</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>2.91</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0052</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>008973</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>大成中华沪深港300指数(LOF)C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>93.22</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>2.71</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>014163</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>富国港股通量化精选股票C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>84.92</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>6.25</t>
+        </is>
+      </c>
+      <c r="G28" t="n">
+        <v>0</v>
+      </c>
+      <c r="H28" t="n">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>27</v>
+      </c>
+      <c r="D2" t="n">
+        <v>20.64</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>31</v>
+      </c>
+      <c r="D3" t="n">
+        <v>22.73</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>26</v>
+      </c>
+      <c r="D4" t="n">
+        <v>15.67</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>21</v>
+      </c>
+      <c r="D5" t="n">
+        <v>10.8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2021-Q2</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>27</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>16.4</v>
       </c>
     </row>

--- a/数据整理/stocks/港股/00005-汇丰控股.xlsx
+++ b/数据整理/stocks/港股/00005-汇丰控股.xlsx
@@ -7,11 +7,12 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -455,7 +456,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -486,14 +487,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D2" t="n">
-        <v>20.64</v>
+        <v>19.69</v>
       </c>
     </row>
     <row r="3">
@@ -502,14 +503,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D3" t="n">
-        <v>22.73</v>
+        <v>20.64</v>
       </c>
     </row>
     <row r="4">
@@ -518,14 +519,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="D4" t="n">
-        <v>15.67</v>
+        <v>22.73</v>
       </c>
     </row>
     <row r="5">
@@ -534,14 +535,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="D5" t="n">
-        <v>10.8</v>
+        <v>15.67</v>
       </c>
     </row>
     <row r="6">
@@ -550,13 +551,29 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>21</v>
+      </c>
+      <c r="D6" t="n">
+        <v>10.8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2021-Q2</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>27</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>16.4</v>
       </c>
     </row>
@@ -566,6 +583,1202 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>159920</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华夏恒生ETF（QDII）</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>163.44</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.95</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>7.26</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>11.8657</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>513660</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华夏沪港通恒生ETF</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>30.20</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>97.65</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>7.63</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.3043</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>513550</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华泰柏瑞中证港股通50ETF</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>25.76</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>98.40</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>8.59</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2.2128</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>010365</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>鹏华港股通中证香港银行投资指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>6.46</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.47</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>13.80</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.8915</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>513600</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>南方恒生ETF</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>7.39</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>99.07</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>7.90</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.5838</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>517300</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>国寿安保中证沪港深300ETF</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>20.94</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>99.33</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.71</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.3581</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>501025</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>鹏华港股通中证香港银行投资指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>2.38</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.47</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>13.80</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.3284</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>513900</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>华安CES港股通精选100ETF</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>1.81</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>97.66</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>9.17</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1660</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>007354</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>创金合信港股通量化股票A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>90.44</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.71</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1540</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>517080</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>汇添富中证沪港深500ETF</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>5.13</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>92.39</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.51</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1288</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>517000</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>银华中证沪港深500ETF</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>5.17</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>94.61</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.44</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1261</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>517100</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>富国中证沪港深500ETF</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>3.67</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>99.59</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.57</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0943</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>006810</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>泰康港股通中证香港银行投资指数C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>94.66</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>13.99</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0811</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>006809</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>泰康港股通中证香港银行投资指数A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>94.66</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>13.99</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0769</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>159712</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>国泰中证港股通50ETF</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>97.27</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>9.00</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0666</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>513990</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>招商上证港股通ETF</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>99.00</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>7.29</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0518</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>159711</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>华夏中证港股通50ETF</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>96.70</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>8.36</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0293</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>012990</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>天弘国证港股通50指数C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>95.03</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>7.39</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0273</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>006106</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>景顺长城量化港股通股票</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>81.25</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>4.39</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0241</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>501309</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>国泰恒生港股通指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>92.87</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>6.27</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0226</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>162416</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>华宝港股通恒生香港35指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>90.59</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>8.66</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0216</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>005707</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>富国港股通量化精选股票A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>91.95</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>7.18</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0180</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>517010</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>易方达中证沪港深500ETF</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>93.66</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>2.48</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0119</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>007357</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>创金合信港股通量化股票C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>90.44</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>4.71</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0113</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>012989</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>天弘国证港股通50指数A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>95.03</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>7.39</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0111</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>160925</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>大成中华沪深港300指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>92.63</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>2.77</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0078</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>517170</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>华夏中证沪港深500ETF</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>96.90</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>2.54</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0061</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>517030</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>易方达中证沪港深300ETF</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>93.68</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>1.45</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0055</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>008973</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>大成中华沪深港300指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>92.63</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>2.77</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0008</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>014163</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>富国港股通量化精选股票C</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>91.95</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>7.18</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0007</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1645,7 +2858,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2879,7 +4092,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3923,7 +5136,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4777,7 +5990,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
